--- a/categotry_mapping.xlsx
+++ b/categotry_mapping.xlsx
@@ -5,19 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="176" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="176" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Alexa" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Yahoo" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Alchemy" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Bluecoat" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="727">
   <si>
     <t>Top/Adult/</t>
   </si>
@@ -772,9 +773,6 @@
     <t>Top/Home/Weblogs</t>
   </si>
   <si>
-    <t>internet &amp; Telecom</t>
-  </si>
-  <si>
     <t>Top/Kids_and_Teens</t>
   </si>
   <si>
@@ -2062,6 +2060,45 @@
     <t>Weather</t>
   </si>
   <si>
+    <t>Appliances</t>
+  </si>
+  <si>
+    <t>Auto Insurance</t>
+  </si>
+  <si>
+    <t>Automotive Industry</t>
+  </si>
+  <si>
+    <t>Board &amp; Management Changes</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Credit Score Reports</t>
+  </si>
+  <si>
+    <t>Diet &amp; Weight Loss</t>
+  </si>
+  <si>
+    <t>Entrance Examinations</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Job Search</t>
+  </si>
+  <si>
+    <t>Personal Checking &amp; Savings</t>
+  </si>
+  <si>
+    <t>Personal Investing Ideas &amp; Strategies</t>
+  </si>
+  <si>
+    <t>Speakers &amp; Headphones</t>
+  </si>
+  <si>
     <t>arts_entertainment</t>
   </si>
   <si>
@@ -2096,6 +2133,72 @@
   </si>
   <si>
     <t>weather</t>
+  </si>
+  <si>
+    <t>Adult/Mature Content</t>
+  </si>
+  <si>
+    <t>Art/Culture</t>
+  </si>
+  <si>
+    <t>Business/Economy</t>
+  </si>
+  <si>
+    <t>Chat (IM)/SMS</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>File Storage/Sharing</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Government/Legal</t>
+  </si>
+  <si>
+    <t>Humor/Jokes</t>
+  </si>
+  <si>
+    <t>Internet Telephony</t>
+  </si>
+  <si>
+    <t>Job Search/Careers</t>
+  </si>
+  <si>
+    <t>News/Media</t>
+  </si>
+  <si>
+    <t>Newsgroups/Forums</t>
+  </si>
+  <si>
+    <t>Pornography</t>
+  </si>
+  <si>
+    <t>Radio/Audio Streams</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Restaurants/Dining/Food</t>
+  </si>
+  <si>
+    <t>Social Networking</t>
+  </si>
+  <si>
+    <t>Society/Daily Living</t>
+  </si>
+  <si>
+    <t>Sports/Recreation</t>
+  </si>
+  <si>
+    <t>Technology/Internet</t>
+  </si>
+  <si>
+    <t>Web Hosting</t>
   </si>
 </sst>
 </file>
@@ -2103,33 +2206,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="5">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Abyssinica SIL"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2141,7 +2244,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -2150,41 +2253,47 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2196,131 +2305,160 @@
   </sheetPr>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B552" activeCellId="0" pane="topLeft" sqref="B552"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A373" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B386" activeCellId="0" sqref="B386"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="43.5647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.3254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.7647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.8313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="43.5663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2330,24 +2468,29 @@
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="D15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2357,8 +2500,9 @@
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+      <c r="D18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2368,32 +2512,39 @@
       <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="D19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2407,7 +2558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2417,32 +2568,39 @@
       <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+      <c r="D24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -2452,96 +2610,119 @@
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+      <c r="D28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="37">
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -2551,72 +2732,89 @@
       <c r="C40" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="41">
+      <c r="D40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2824,9 @@
       <c r="C49" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+      <c r="D49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -2637,24 +2836,29 @@
       <c r="C50" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+      <c r="D50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="53">
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
@@ -2664,80 +2868,99 @@
       <c r="C53" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
+      <c r="D53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+      <c r="C54" s="0"/>
+      <c r="D54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
+      <c r="C55" s="0"/>
+      <c r="D55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+      <c r="C57" s="0"/>
+      <c r="D57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -2747,56 +2970,69 @@
       <c r="C63" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
+      <c r="D63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
+      <c r="C65" s="0"/>
+      <c r="D65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
+      <c r="C66" s="0"/>
+      <c r="D66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
+      <c r="C68" s="0"/>
+      <c r="D68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="70">
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -2806,24 +3042,29 @@
       <c r="C70" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
+      <c r="D70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
+      <c r="C71" s="0"/>
+      <c r="D71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
+      <c r="C72" s="0"/>
+      <c r="D72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
@@ -2833,40 +3074,49 @@
       <c r="C73" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
+      <c r="D73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
+      <c r="C74" s="0"/>
+      <c r="D74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
+      <c r="C75" s="0"/>
+      <c r="D75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
+      <c r="C76" s="0"/>
+      <c r="D76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -2876,16 +3126,19 @@
       <c r="C78" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="79">
+      <c r="D78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
+      <c r="C79" s="0"/>
+      <c r="D79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>94</v>
       </c>
@@ -2899,7 +3152,7 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>97</v>
       </c>
@@ -2910,127 +3163,142 @@
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
+      <c r="C82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
+      <c r="C83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
+      <c r="C84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
+      <c r="C85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
+      <c r="C86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
+      <c r="C87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
+      <c r="C88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
+      <c r="C89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
+      <c r="C90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
+      <c r="C91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
+      <c r="C92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
+      <c r="C93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
+      <c r="C94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
+      <c r="C95" s="0"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
+      <c r="C96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>114</v>
       </c>
@@ -3041,47 +3309,52 @@
         <v>115</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="99">
+      <c r="C98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="100">
+      <c r="C99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
+      <c r="C100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
+      <c r="C101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="103">
+      <c r="C102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>121</v>
       </c>
@@ -3092,31 +3365,34 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
+      <c r="C104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
+      <c r="C105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="107">
+      <c r="C106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>125</v>
       </c>
@@ -3127,23 +3403,25 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
+      <c r="C108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="110">
+      <c r="C109" s="0"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>128</v>
       </c>
@@ -3154,55 +3432,61 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
+      <c r="C111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
+      <c r="C112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
+      <c r="C113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
+      <c r="C114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
+      <c r="C115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="117">
+      <c r="C116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>135</v>
       </c>
@@ -3213,103 +3497,115 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
+      <c r="C118" s="0"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
+      <c r="C119" s="0"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
+      <c r="C120" s="0"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
+      <c r="C121" s="0"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
+      <c r="C122" s="0"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
+      <c r="C123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
+      <c r="C124" s="0"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
+      <c r="C125" s="0"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
+      <c r="C126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
+      <c r="C127" s="0"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="129">
+      <c r="C128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="130">
+      <c r="C129" s="0"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>148</v>
       </c>
@@ -3320,31 +3616,34 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
+      <c r="C131" s="0"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
+      <c r="C132" s="0"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
+      <c r="C133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>152</v>
       </c>
@@ -3355,351 +3654,394 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
+      <c r="C135" s="0"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
+      <c r="C136" s="0"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
+      <c r="C137" s="0"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
+      <c r="C138" s="0"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
+      <c r="C139" s="0"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
+      <c r="C140" s="0"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
+      <c r="C141" s="0"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
+      <c r="C142" s="0"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
+      <c r="C143" s="0"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
+      <c r="C144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
+      <c r="C145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
+      <c r="C146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
+      <c r="C147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
+      <c r="C148" s="0"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
+      <c r="C149" s="0"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
+      <c r="C150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
+      <c r="C151" s="0"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
+      <c r="C152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
+      <c r="C153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
+      <c r="C154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
+      <c r="C155" s="0"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
+      <c r="C156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
+      <c r="C157" s="0"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
+      <c r="C158" s="0"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
+      <c r="C159" s="0"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
+      <c r="C160" s="0"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="162">
+      <c r="C161" s="0"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
+      <c r="C162" s="0"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
+      <c r="C163" s="0"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
+      <c r="C164" s="0"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
+      <c r="C165" s="0"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
+      <c r="C166" s="0"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
+      <c r="C167" s="0"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="169">
+      <c r="C168" s="0"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
+      <c r="C169" s="0"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
+      <c r="C170" s="0"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
+      <c r="C171" s="0"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
+      <c r="C172" s="0"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
+      <c r="C173" s="0"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
+      <c r="C174" s="0"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
+      <c r="C175" s="0"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
+      <c r="C176" s="0"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
+      <c r="C177" s="0"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>196</v>
       </c>
@@ -3710,47 +4052,52 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
+      <c r="C179" s="0"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
+      <c r="C180" s="0"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
+      <c r="C181" s="0"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
+      <c r="C182" s="0"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="184">
+      <c r="C183" s="0"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>202</v>
       </c>
@@ -3761,7 +4108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>203</v>
       </c>
@@ -3772,7 +4119,7 @@
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>204</v>
       </c>
@@ -3783,39 +4130,43 @@
         <v>205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
+      <c r="C187" s="0"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
+      <c r="C188" s="0"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
+      <c r="C189" s="0"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
+      <c r="C190" s="0"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>210</v>
       </c>
@@ -3826,31 +4177,34 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
+      <c r="C192" s="0"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
+      <c r="C193" s="0"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
+      <c r="C194" s="0"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>214</v>
       </c>
@@ -3861,55 +4215,61 @@
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
+      <c r="C196" s="0"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
+      <c r="C197" s="0"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
+      <c r="C198" s="0"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
+      <c r="C199" s="0"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
+      <c r="C200" s="0"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="202">
+      <c r="C201" s="0"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
         <v>221</v>
       </c>
@@ -3920,39 +4280,43 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
+      <c r="C203" s="0"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
+      <c r="C204" s="0"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
+      <c r="C205" s="0"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
+      <c r="C206" s="0"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>226</v>
       </c>
@@ -3963,15 +4327,16 @@
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
+      <c r="C208" s="0"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
         <v>228</v>
       </c>
@@ -3982,119 +4347,133 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
+      <c r="C210" s="0"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
+      <c r="C211" s="0"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
+      <c r="C212" s="0"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
+      <c r="C213" s="0"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
+      <c r="C214" s="0"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
+      <c r="C215" s="0"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
+      <c r="C216" s="0"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
+      <c r="C217" s="0"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
+      <c r="C218" s="0"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
+      <c r="C219" s="0"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
+      <c r="C220" s="0"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
+      <c r="C221" s="0"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
+      <c r="C222" s="0"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
+      <c r="C223" s="0"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
         <v>244</v>
       </c>
@@ -4105,47 +4484,52 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="225">
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
+      <c r="C225" s="0"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
+      <c r="C226" s="0"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="228">
+      <c r="C227" s="0"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
+      <c r="C228" s="0"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="230">
+      <c r="C229" s="0"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
         <v>250</v>
       </c>
@@ -4153,100 +4537,111 @@
         <v>231</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="231">
-      <c r="A231" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="232">
+      <c r="C231" s="0"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="233">
+      <c r="C232" s="0"/>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="234">
+      <c r="C233" s="0"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C234" s="0"/>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="235">
-      <c r="A235" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="236">
+      <c r="C235" s="0"/>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="237">
+      <c r="C236" s="0"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="238">
+      <c r="C237" s="0"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="239">
+      <c r="C238" s="0"/>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="240">
+      <c r="C239" s="0"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="241">
+      <c r="C240" s="0"/>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="242">
+      <c r="C241" s="0"/>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>205</v>
@@ -4255,81 +4650,90 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="243">
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="244">
+      <c r="C243" s="0"/>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="245">
+      <c r="C244" s="0"/>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="246">
+      <c r="C245" s="0"/>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="247">
+      <c r="C246" s="0"/>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="248">
+      <c r="C247" s="0"/>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="249">
+      <c r="C248" s="0"/>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="250">
+      <c r="C249" s="0"/>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="251">
+      <c r="C250" s="0"/>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="252">
+      <c r="C251" s="0"/>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>47</v>
@@ -4338,9 +4742,9 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="253">
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>47</v>
@@ -4349,116 +4753,128 @@
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="254">
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="255">
+      <c r="C254" s="0"/>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="256">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="257">
+      <c r="C256" s="0"/>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="258">
+      <c r="C257" s="0"/>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="259">
+      <c r="C258" s="0"/>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="260">
+      <c r="C259" s="0"/>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="261">
+      <c r="C260" s="0"/>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="262">
+      <c r="C261" s="0"/>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="263">
+      <c r="C262" s="0"/>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="264">
+      <c r="C263" s="0"/>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="265">
+      <c r="C264" s="0"/>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="266">
+      <c r="C265" s="0"/>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="267">
+      <c r="C266" s="0"/>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>47</v>
@@ -4467,9 +4883,9 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="268">
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>29</v>
@@ -4478,57 +4894,63 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="269">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="270">
+      <c r="C269" s="0"/>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="271">
+      <c r="C270" s="0"/>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="272">
+      <c r="C271" s="0"/>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="273">
+      <c r="C272" s="0"/>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="274">
+      <c r="C273" s="0"/>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C274" s="0"/>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="275">
-      <c r="A275" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>29</v>
@@ -4537,25 +4959,27 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="276">
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="277">
+      <c r="C276" s="0"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="278">
+      <c r="C277" s="0"/>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>29</v>
@@ -4564,17 +4988,18 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="279">
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="280">
+      <c r="C279" s="0"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>29</v>
@@ -4583,9 +5008,9 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="281">
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>17</v>
@@ -4594,116 +5019,128 @@
         <v>205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="282">
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="283">
+      <c r="C282" s="0"/>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="284">
+      <c r="C283" s="0"/>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="285">
+      <c r="C284" s="0"/>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="286">
+      <c r="C285" s="0"/>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="287">
+      <c r="C286" s="0"/>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="288">
+      <c r="C287" s="0"/>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="289">
+      <c r="C288" s="0"/>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="290">
+      <c r="C289" s="0"/>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="291">
+      <c r="C290" s="0"/>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C291" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="292">
-      <c r="A292" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="293">
+      <c r="C292" s="0"/>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="294">
+      <c r="C293" s="0"/>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="295">
+      <c r="C294" s="0"/>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>14</v>
@@ -4712,121 +5149,135 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="296">
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="297">
+      <c r="C296" s="0"/>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="298">
+      <c r="C297" s="0"/>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="299">
+      <c r="C298" s="0"/>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="300">
+      <c r="C299" s="0"/>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="301">
+      <c r="C300" s="0"/>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="302">
+      <c r="C301" s="0"/>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="303">
+      <c r="C302" s="0"/>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="304">
+      <c r="C303" s="0"/>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="305">
+      <c r="C304" s="0"/>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="306">
+      <c r="C305" s="0"/>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="307">
+      <c r="C306" s="0"/>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="308">
+      <c r="C307" s="0"/>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="309">
+      <c r="C308" s="0"/>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="310">
+      <c r="C309" s="0"/>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>47</v>
@@ -4835,9 +5286,9 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="311">
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>47</v>
@@ -4846,57 +5297,63 @@
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="312">
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="313">
+      <c r="C312" s="0"/>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="314">
+      <c r="C313" s="0"/>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="315">
+      <c r="C314" s="0"/>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="316">
+      <c r="C315" s="0"/>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="317">
+      <c r="C316" s="0"/>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="318">
+      <c r="C317" s="0"/>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>96</v>
@@ -4905,393 +5362,430 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="319">
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="320">
+      <c r="C319" s="0"/>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="321">
+      <c r="C320" s="0"/>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="322">
+      <c r="C321" s="0"/>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="323">
+      <c r="C322" s="0"/>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="324">
+      <c r="C323" s="0"/>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C324" s="0"/>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="325">
-      <c r="A325" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="326">
+      <c r="C325" s="0"/>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="C326" s="0"/>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="327">
-      <c r="A327" s="1" t="s">
+      <c r="B327" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C327" s="0"/>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="328">
-      <c r="A328" s="1" t="s">
+      <c r="B328" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C328" s="0"/>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B328" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="329">
-      <c r="A329" s="1" t="s">
+      <c r="B329" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C329" s="0"/>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="330">
-      <c r="A330" s="1" t="s">
+      <c r="B330" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C330" s="0"/>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="331">
-      <c r="A331" s="1" t="s">
+      <c r="B331" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C331" s="0"/>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B331" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="332">
-      <c r="A332" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="B332" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="333">
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C333" s="0"/>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B333" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="334">
-      <c r="A334" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="B334" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="335">
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C335" s="0"/>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B335" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="336">
-      <c r="A336" s="1" t="s">
+      <c r="B336" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C336" s="0"/>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="337">
-      <c r="A337" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="B337" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="338">
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C338" s="0"/>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="339">
-      <c r="A339" s="1" t="s">
+      <c r="B339" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C339" s="0"/>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B339" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="340">
-      <c r="A340" s="1" t="s">
+      <c r="B340" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C340" s="0"/>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B340" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="341">
-      <c r="A341" s="1" t="s">
+      <c r="B341" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C341" s="0"/>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="342">
-      <c r="A342" s="1" t="s">
+      <c r="B342" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C342" s="0"/>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="343">
-      <c r="A343" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="B343" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="344">
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C344" s="0"/>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="345">
-      <c r="A345" s="1" t="s">
+      <c r="B345" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C345" s="0"/>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B345" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="346">
-      <c r="A346" s="1" t="s">
+      <c r="B346" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C346" s="0"/>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B346" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="347">
-      <c r="A347" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="B347" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="348">
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C348" s="0"/>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B348" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="349">
-      <c r="A349" s="1" t="s">
+      <c r="B349" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C349" s="0"/>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="350">
-      <c r="A350" s="1" t="s">
+      <c r="B350" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C350" s="0"/>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="351">
-      <c r="A351" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="B351" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="352">
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="353">
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="354">
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C354" s="0"/>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="355">
-      <c r="A355" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="356">
+      <c r="C355" s="0"/>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="357">
+      <c r="C356" s="0"/>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="358">
+      <c r="C357" s="0"/>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="359">
+      <c r="C358" s="0"/>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="360">
+      <c r="C359" s="0"/>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="361">
+      <c r="C360" s="0"/>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="362">
+      <c r="C361" s="0"/>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="363">
+      <c r="C362" s="0"/>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="364">
+      <c r="C363" s="0"/>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>115</v>
@@ -5300,129 +5794,144 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="365">
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="366">
+      <c r="C365" s="0"/>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="367">
+      <c r="C366" s="0"/>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="368">
+      <c r="C367" s="0"/>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="369">
+      <c r="C368" s="0"/>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C369" s="0"/>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="370">
-      <c r="A370" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="371">
+      <c r="C370" s="0"/>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C371" s="0"/>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="372">
-      <c r="A372" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="373">
+      <c r="C372" s="0"/>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="374">
+      <c r="C373" s="0"/>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="375">
+      <c r="C374" s="0"/>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="376">
+      <c r="C375" s="0"/>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="377">
+      <c r="C376" s="0"/>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="378">
+      <c r="C377" s="0"/>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="379">
+      <c r="C378" s="0"/>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="380">
+      <c r="C379" s="0"/>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>96</v>
@@ -5431,425 +5940,477 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="381">
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C381" s="0"/>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="382">
-      <c r="A382" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="383">
+      <c r="C382" s="0"/>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="384">
+      <c r="C383" s="0"/>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="385">
+      <c r="C384" s="0"/>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="386">
+      <c r="C385" s="0"/>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="387">
+      <c r="C386" s="0"/>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="388">
+      <c r="C387" s="0"/>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C388" s="0"/>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="389">
-      <c r="A389" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="390">
+      <c r="C389" s="0"/>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="391">
+      <c r="C390" s="0"/>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="392">
+      <c r="C391" s="0"/>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B392" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B392" s="1" t="s">
+      <c r="C392" s="0"/>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="1" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="393">
-      <c r="A393" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="394">
+      <c r="C393" s="0"/>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="395">
+      <c r="C394" s="0"/>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="396">
+      <c r="C395" s="0"/>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="397">
+      <c r="C396" s="0"/>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="398">
+      <c r="C397" s="0"/>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="399">
+      <c r="C398" s="0"/>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="400">
+      <c r="C399" s="0"/>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C400" s="0"/>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="401">
-      <c r="A401" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="402">
+      <c r="C401" s="0"/>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C402" s="0"/>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="403">
-      <c r="A403" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="404">
+      <c r="C403" s="0"/>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C404" s="0"/>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="405">
-      <c r="A405" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="406">
+      <c r="C405" s="0"/>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C406" s="0"/>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="407">
-      <c r="A407" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="408">
+      <c r="C407" s="0"/>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="409">
+      <c r="C408" s="0"/>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="410">
+      <c r="C409" s="0"/>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="411">
+      <c r="C410" s="0"/>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="412">
+      <c r="C411" s="0"/>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C412" s="0"/>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="413">
-      <c r="A413" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="414">
+      <c r="C413" s="0"/>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="415">
+      <c r="C414" s="0"/>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="416">
+      <c r="C415" s="0"/>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="417">
+      <c r="C416" s="0"/>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="418">
+      <c r="C417" s="0"/>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="419">
+      <c r="C418" s="0"/>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="420">
+      <c r="C419" s="0"/>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C420" s="0"/>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B420" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="421">
-      <c r="A421" s="1" t="s">
+      <c r="B421" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C421" s="0"/>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B421" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="422">
-      <c r="A422" s="1" t="s">
+      <c r="B422" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C422" s="0"/>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B422" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="423">
-      <c r="A423" s="1" t="s">
+      <c r="B423" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C423" s="0"/>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B423" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="424">
-      <c r="A424" s="1" t="s">
+      <c r="B424" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C424" s="0"/>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B424" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="425">
-      <c r="A425" s="1" t="s">
+      <c r="B425" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C425" s="0"/>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B425" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="426">
-      <c r="A426" s="1" t="s">
+      <c r="B426" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C426" s="0"/>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B426" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="427">
-      <c r="A427" s="1" t="s">
+      <c r="B427" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C427" s="0"/>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B427" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="428">
-      <c r="A428" s="1" t="s">
+      <c r="B428" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C428" s="0"/>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B428" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="429">
-      <c r="A429" s="1" t="s">
+      <c r="B429" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C429" s="0"/>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B429" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="430">
-      <c r="A430" s="1" t="s">
+      <c r="B430" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C430" s="0"/>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B430" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="431">
-      <c r="A431" s="1" t="s">
+      <c r="B431" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C431" s="0"/>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B431" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="432">
-      <c r="A432" s="1" t="s">
+      <c r="B432" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C432" s="0"/>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="433">
-      <c r="A433" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>205</v>
@@ -5858,425 +6419,477 @@
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="434">
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C434" s="0"/>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B434" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="435">
-      <c r="A435" s="1" t="s">
+      <c r="B435" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C435" s="0"/>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B435" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="436">
-      <c r="A436" s="1" t="s">
+      <c r="B436" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C436" s="0"/>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B436" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="437">
-      <c r="A437" s="1" t="s">
+      <c r="B437" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C437" s="0"/>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B437" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="438">
-      <c r="A438" s="1" t="s">
+      <c r="B438" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C438" s="0"/>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B438" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="439">
-      <c r="A439" s="1" t="s">
+      <c r="B439" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C439" s="0"/>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B439" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="440">
-      <c r="A440" s="1" t="s">
+      <c r="B440" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C440" s="0"/>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B440" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="441">
-      <c r="A441" s="1" t="s">
+      <c r="B441" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C441" s="0"/>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B441" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="442">
-      <c r="A442" s="1" t="s">
+      <c r="B442" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C442" s="0"/>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="443">
-      <c r="A443" s="1" t="s">
+      <c r="B443" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C443" s="0"/>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B443" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="444">
-      <c r="A444" s="1" t="s">
+      <c r="B444" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C444" s="0"/>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B444" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="445">
-      <c r="A445" s="1" t="s">
+      <c r="B445" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C445" s="0"/>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B445" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="446">
-      <c r="A446" s="1" t="s">
+      <c r="B446" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C446" s="0"/>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B446" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="447">
-      <c r="A447" s="1" t="s">
+      <c r="B447" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C447" s="0"/>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B447" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="448">
-      <c r="A448" s="1" t="s">
+      <c r="B448" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C448" s="0"/>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="449">
-      <c r="A449" s="1" t="s">
+      <c r="B449" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C449" s="0"/>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B449" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="450">
-      <c r="A450" s="1" t="s">
+      <c r="B450" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C450" s="0"/>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B450" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="451">
-      <c r="A451" s="1" t="s">
+      <c r="B451" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C451" s="0"/>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B451" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="452">
-      <c r="A452" s="1" t="s">
+      <c r="B452" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C452" s="0"/>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B452" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="453">
-      <c r="A453" s="1" t="s">
+      <c r="B453" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C453" s="0"/>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B453" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="454">
-      <c r="A454" s="1" t="s">
+      <c r="B454" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C454" s="0"/>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B454" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="455">
-      <c r="A455" s="1" t="s">
+      <c r="B455" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C455" s="0"/>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B455" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="456">
-      <c r="A456" s="1" t="s">
+      <c r="B456" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C456" s="0"/>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B456" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="457">
-      <c r="A457" s="1" t="s">
+      <c r="B457" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C457" s="0"/>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B457" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="458">
-      <c r="A458" s="1" t="s">
+      <c r="B458" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C458" s="0"/>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B458" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="459">
-      <c r="A459" s="1" t="s">
+      <c r="B459" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C459" s="0"/>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B459" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="460">
-      <c r="A460" s="1" t="s">
+      <c r="B460" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C460" s="0"/>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B460" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="461">
-      <c r="A461" s="1" t="s">
+      <c r="B461" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C461" s="0"/>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B461" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="462">
-      <c r="A462" s="1" t="s">
+      <c r="B462" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C462" s="0"/>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="463">
-      <c r="A463" s="1" t="s">
+      <c r="B463" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C463" s="0"/>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B463" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="464">
-      <c r="A464" s="1" t="s">
+      <c r="B464" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C464" s="0"/>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B464" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="465">
-      <c r="A465" s="1" t="s">
+      <c r="B465" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C465" s="0"/>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B465" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="466">
-      <c r="A466" s="1" t="s">
+      <c r="B466" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C466" s="0"/>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B466" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="467">
-      <c r="A467" s="1" t="s">
+      <c r="B467" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C467" s="0"/>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B467" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="468">
-      <c r="A468" s="1" t="s">
+      <c r="B468" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C468" s="0"/>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B468" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="469">
-      <c r="A469" s="1" t="s">
+      <c r="B469" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C469" s="0"/>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B469" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="470">
-      <c r="A470" s="1" t="s">
+      <c r="B470" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C470" s="0"/>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B470" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="471">
-      <c r="A471" s="1" t="s">
+      <c r="B471" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C471" s="0"/>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B471" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="472">
-      <c r="A472" s="1" t="s">
+      <c r="B472" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C472" s="0"/>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B472" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="473">
-      <c r="A473" s="1" t="s">
+      <c r="B473" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C473" s="0"/>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B473" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="474">
-      <c r="A474" s="1" t="s">
+      <c r="B474" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C474" s="0"/>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B474" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="475">
-      <c r="A475" s="1" t="s">
+      <c r="B475" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C475" s="0"/>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B475" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="476">
-      <c r="A476" s="1" t="s">
+      <c r="B476" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C476" s="0"/>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B476" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="477">
-      <c r="A477" s="1" t="s">
+      <c r="B477" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C477" s="0"/>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B477" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="478">
-      <c r="A478" s="1" t="s">
+      <c r="B478" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C478" s="0"/>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B478" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="479">
-      <c r="A479" s="1" t="s">
+      <c r="B479" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C479" s="0"/>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B479" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="480">
-      <c r="A480" s="1" t="s">
+      <c r="B480" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C480" s="0"/>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B480" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="481">
-      <c r="A481" s="1" t="s">
+      <c r="B481" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C481" s="0"/>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B481" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="482">
-      <c r="A482" s="1" t="s">
+      <c r="B482" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C482" s="0"/>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B482" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="483">
-      <c r="A483" s="1" t="s">
+      <c r="B483" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C483" s="0"/>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B483" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="484">
-      <c r="A484" s="1" t="s">
+      <c r="B484" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C484" s="0"/>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B484" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="485">
-      <c r="A485" s="1" t="s">
+      <c r="B485" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C485" s="0"/>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="486">
-      <c r="A486" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>205</v>
@@ -6285,121 +6898,135 @@
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="487">
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C487" s="0"/>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B487" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="488">
-      <c r="A488" s="1" t="s">
+      <c r="B488" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C488" s="0"/>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B488" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="489">
-      <c r="A489" s="1" t="s">
+      <c r="B489" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C489" s="0"/>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B489" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="490">
-      <c r="A490" s="1" t="s">
+      <c r="B490" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C490" s="0"/>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B490" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="491">
-      <c r="A491" s="1" t="s">
+      <c r="B491" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C491" s="0"/>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B491" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="492">
-      <c r="A492" s="1" t="s">
+      <c r="B492" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C492" s="0"/>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B492" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="493">
-      <c r="A493" s="1" t="s">
+      <c r="B493" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C493" s="0"/>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B493" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="494">
-      <c r="A494" s="1" t="s">
+      <c r="B494" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C494" s="0"/>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B494" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="495">
-      <c r="A495" s="1" t="s">
+      <c r="B495" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C495" s="0"/>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B495" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="496">
-      <c r="A496" s="1" t="s">
+      <c r="B496" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C496" s="0"/>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B496" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="497">
-      <c r="A497" s="1" t="s">
+      <c r="B497" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C497" s="0"/>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B497" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="498">
-      <c r="A498" s="1" t="s">
+      <c r="B498" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C498" s="0"/>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B498" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="499">
-      <c r="A499" s="1" t="s">
+      <c r="B499" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C499" s="0"/>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B499" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="500">
-      <c r="A500" s="1" t="s">
+      <c r="B500" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C500" s="0"/>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="501">
-      <c r="A501" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>205</v>
@@ -6411,7 +7038,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6424,21 +7051,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A236" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="30.8588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.643137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="30.8571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>75</v>
@@ -6447,39 +7075,39 @@
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>529</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
-        <v>530</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>14</v>
       </c>
@@ -6487,89 +7115,89 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>533</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
-        <v>534</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+      <c r="B15" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>539</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
-        <v>540</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>231</v>
@@ -6578,105 +7206,105 @@
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>543</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="s">
-        <v>544</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>115</v>
@@ -6685,17 +7313,17 @@
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>555</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="s">
-        <v>556</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>86</v>
@@ -6704,17 +7332,17 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>115</v>
@@ -6723,87 +7351,87 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
-      <c r="A38" s="0" t="s">
+      <c r="B38" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>562</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
-      <c r="A39" s="0" t="s">
-        <v>563</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>566</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
-      <c r="A43" s="0" t="s">
-        <v>567</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>95</v>
       </c>
@@ -6811,68 +7439,68 @@
         <v>95</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>75</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>17</v>
@@ -6881,20 +7509,20 @@
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>73</v>
@@ -6903,17 +7531,17 @@
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>21</v>
@@ -6922,7 +7550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>64</v>
       </c>
@@ -6930,65 +7558,65 @@
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>582</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
-      <c r="A61" s="0" t="s">
-        <v>583</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>584</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
-      <c r="A63" s="0" t="s">
-        <v>585</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>75</v>
@@ -6997,39 +7625,39 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
-      <c r="A68" s="0" t="s">
+      <c r="B68" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
-      <c r="A69" s="0" t="s">
+      <c r="B69" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>591</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="70">
-      <c r="A70" s="0" t="s">
-        <v>592</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>73</v>
       </c>
@@ -7037,50 +7665,50 @@
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>596</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
-      <c r="A76" s="0" t="s">
-        <v>597</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>231</v>
       </c>
@@ -7088,9 +7716,9 @@
         <v>231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>205</v>
@@ -7099,9 +7727,9 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>95</v>
@@ -7110,97 +7738,97 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
-      <c r="A82" s="0" t="s">
+      <c r="B82" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>602</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
-      <c r="A83" s="0" t="s">
-        <v>603</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="84">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="85">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
-      <c r="A90" s="0" t="s">
+      <c r="B90" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>610</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
-      <c r="A91" s="0" t="s">
-        <v>611</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>17</v>
@@ -7209,215 +7837,215 @@
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
         <v>612</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
-      <c r="A93" s="0" t="s">
-        <v>613</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
-      <c r="A96" s="0" t="s">
+      <c r="B96" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>616</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="97">
-      <c r="A97" s="0" t="s">
-        <v>617</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>618</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
-      <c r="A99" s="0" t="s">
-        <v>619</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
-      <c r="A103" s="0" t="s">
+      <c r="B103" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
-      <c r="A104" s="0" t="s">
+      <c r="B104" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>624</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
-      <c r="A105" s="0" t="s">
-        <v>625</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>626</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
-      <c r="A107" s="0" t="s">
-        <v>627</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>630</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
-      <c r="A111" s="0" t="s">
-        <v>631</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
-      <c r="A115" s="0" t="s">
+      <c r="B115" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
-      <c r="A116" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>112</v>
       </c>
@@ -7425,17 +8053,17 @@
         <v>112</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>205</v>
@@ -7444,44 +8072,44 @@
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>86</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>205</v>
@@ -7490,137 +8118,137 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
         <v>649</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
-      <c r="A132" s="0" t="s">
-        <v>650</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="B134" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
-      <c r="A135" s="0" t="s">
+      <c r="B135" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
         <v>653</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="136">
-      <c r="A136" s="0" t="s">
-        <v>654</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
         <v>658</v>
       </c>
-      <c r="B140" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
-      <c r="A141" s="0" t="s">
+      <c r="B141" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
         <v>659</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
-      <c r="A142" s="0" t="s">
-        <v>660</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>205</v>
@@ -7629,111 +8257,111 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
         <v>662</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
-      <c r="A145" s="0" t="s">
-        <v>663</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
         <v>664</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
-      <c r="A147" s="0" t="s">
-        <v>665</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="149">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
         <v>669</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
-      <c r="A152" s="0" t="s">
-        <v>670</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>96</v>
       </c>
@@ -7741,66 +8369,170 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
         <v>675</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
-      <c r="A159" s="0" t="s">
-        <v>676</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
         <v>679</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
-      <c r="A163" s="0" t="s">
-        <v>680</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -7815,36 +8547,37 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E11" activeCellId="0" pane="topLeft" sqref="E11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8196078431373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>86</v>
@@ -7853,41 +8586,41 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>29</v>
@@ -7896,33 +8629,33 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>47</v>
@@ -7931,7 +8664,265 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/categotry_mapping.xlsx
+++ b/categotry_mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="176" firstSheet="0" activeTab="3"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="176" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Alexa" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="769">
   <si>
     <t>Top/Adult/</t>
   </si>
@@ -2099,6 +2099,117 @@
     <t>Speakers &amp; Headphones</t>
   </si>
   <si>
+    <t>Health Care Industry</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>Auto Loans</t>
+  </si>
+  <si>
+    <t>Bathroom</t>
+  </si>
+  <si>
+    <t>Biotechnology Science</t>
+  </si>
+  <si>
+    <t>Collecting</t>
+  </si>
+  <si>
+    <t>Commercial Vehicles</t>
+  </si>
+  <si>
+    <t>Cultural Events</t>
+  </si>
+  <si>
+    <t>Cultural Festivals, Concerts &amp; Shows</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Dresses</t>
+  </si>
+  <si>
+    <t>Ethnic Groups</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
+    <t>Gaming &amp; Lottery</t>
+  </si>
+  <si>
+    <t>Home Safety &amp; Security</t>
+  </si>
+  <si>
+    <t>House of Representatives</t>
+  </si>
+  <si>
+    <t>Lighting &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Living Nature</t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>Medical Specialties &amp; Services</t>
+  </si>
+  <si>
+    <t>Mergers, Acquisitions &amp; Takeovers</t>
+  </si>
+  <si>
+    <t>Mortgage Loans</t>
+  </si>
+  <si>
+    <t>Motorcycling</t>
+  </si>
+  <si>
+    <t>Outdoor Recreation</t>
+  </si>
+  <si>
+    <t>Plants</t>
+  </si>
+  <si>
+    <t>Political Campaigns</t>
+  </si>
+  <si>
+    <t>Retirement Benefits</t>
+  </si>
+  <si>
+    <t>Senate</t>
+  </si>
+  <si>
+    <t>Shirts</t>
+  </si>
+  <si>
+    <t>Solar Power</t>
+  </si>
+  <si>
+    <t>Sports Memorabilia</t>
+  </si>
+  <si>
+    <t>Swimming &amp; Diving</t>
+  </si>
+  <si>
+    <t>Transport Accident</t>
+  </si>
+  <si>
+    <t>Types of Cars</t>
+  </si>
+  <si>
     <t>arts_entertainment</t>
   </si>
   <si>
@@ -2199,6 +2310,21 @@
   </si>
   <si>
     <t>Web Hosting</t>
+  </si>
+  <si>
+    <t>Web Ads/Analytics</t>
+  </si>
+  <si>
+    <t>Auctions</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Political/Social Advocacy</t>
+  </si>
+  <si>
+    <t>Audio/Video Clips</t>
   </si>
 </sst>
 </file>
@@ -2206,33 +2332,35 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="5">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Abyssinica SIL"/>
+      <charset val="1"/>
+      <family val="0"/>
       <sz val="10"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2244,7 +2372,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -2253,47 +2381,42 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2305,160 +2428,131 @@
   </sheetPr>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A373" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B386" activeCellId="0" sqref="B386"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A373" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B402" activeCellId="0" pane="topLeft" sqref="B402"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="43.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.3214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.678431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.1098039215686"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.0941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.6941176470588"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="0"/>
-      <c r="D5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="0"/>
-      <c r="D6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2468,29 +2562,24 @@
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2500,9 +2589,8 @@
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2512,39 +2600,32 @@
       <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2558,7 +2639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2568,39 +2649,32 @@
       <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -2610,119 +2684,96 @@
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="32">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="0"/>
-      <c r="D39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -2732,89 +2783,72 @@
       <c r="C40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="0"/>
-      <c r="D44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="0"/>
-      <c r="D46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="0"/>
-      <c r="D48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -2824,9 +2858,8 @@
       <c r="C49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -2836,29 +2869,24 @@
       <c r="C50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="0"/>
-      <c r="D52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
@@ -2868,99 +2896,80 @@
       <c r="C53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="54">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="0"/>
-      <c r="D54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="55">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="0"/>
-      <c r="D55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="0"/>
-      <c r="D56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="0"/>
-      <c r="D57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="0"/>
-      <c r="D59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="0"/>
-      <c r="D60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="0"/>
-      <c r="D61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="62">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="63">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -2970,69 +2979,56 @@
       <c r="C63" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="64">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="0"/>
-      <c r="D64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="0"/>
-      <c r="D65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="0"/>
-      <c r="D66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="67">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="0"/>
-      <c r="D67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="68">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="0"/>
-      <c r="D68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="0"/>
-      <c r="D69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="70">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -3042,29 +3038,24 @@
       <c r="C70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="0"/>
-      <c r="D71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="72">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="0"/>
-      <c r="D72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="73">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
@@ -3074,49 +3065,40 @@
       <c r="C73" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="0"/>
-      <c r="D74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="75">
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="0"/>
-      <c r="D75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="A76" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="0"/>
-      <c r="D76" s="0"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="0"/>
-      <c r="D77" s="0"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="78">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -3126,19 +3108,16 @@
       <c r="C78" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="79">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="0"/>
-      <c r="D79" s="0"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="80">
       <c r="A80" s="1" t="s">
         <v>94</v>
       </c>
@@ -3152,7 +3131,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="81">
       <c r="A81" s="1" t="s">
         <v>97</v>
       </c>
@@ -3163,142 +3142,127 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="82">
       <c r="A82" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="0"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="83">
       <c r="A83" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="0"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="84">
       <c r="A84" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="0"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="85">
       <c r="A85" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="0"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="86">
       <c r="A86" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C86" s="0"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="87">
       <c r="A87" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C87" s="0"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="88">
       <c r="A88" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="0"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="89">
       <c r="A89" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="0"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="90">
       <c r="A90" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="0"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="91">
       <c r="A91" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="0"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="92">
       <c r="A92" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C92" s="0"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="93">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C93" s="0"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="94">
       <c r="A94" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C94" s="0"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="95">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C95" s="0"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="96">
       <c r="A96" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C96" s="0"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="97">
       <c r="A97" s="1" t="s">
         <v>114</v>
       </c>
@@ -3309,52 +3273,47 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="98">
       <c r="A98" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C98" s="0"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="99">
       <c r="A99" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="0"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="0"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C101" s="0"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="102">
       <c r="A102" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C102" s="0"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
         <v>121</v>
       </c>
@@ -3365,34 +3324,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="104">
       <c r="A104" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C104" s="0"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="105">
       <c r="A105" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C105" s="0"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C106" s="0"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="107">
       <c r="A107" s="1" t="s">
         <v>125</v>
       </c>
@@ -3403,25 +3359,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="108">
       <c r="A108" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C108" s="0"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="109">
       <c r="A109" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C109" s="0"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="110">
       <c r="A110" s="1" t="s">
         <v>128</v>
       </c>
@@ -3432,61 +3386,55 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="111">
       <c r="A111" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="0"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="112">
       <c r="A112" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C112" s="0"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="113">
       <c r="A113" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C113" s="0"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C114" s="0"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C115" s="0"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C116" s="0"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
         <v>135</v>
       </c>
@@ -3497,115 +3445,103 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="0"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="0"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C120" s="0"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C121" s="0"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C122" s="0"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C123" s="0"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C124" s="0"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C125" s="0"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C126" s="0"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C127" s="0"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C128" s="0"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C129" s="0"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
         <v>148</v>
       </c>
@@ -3616,34 +3552,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C131" s="0"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C132" s="0"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C133" s="0"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
         <v>152</v>
       </c>
@@ -3654,394 +3587,351 @@
         <v>47</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C135" s="0"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C136" s="0"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C137" s="0"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C138" s="0"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C139" s="0"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C140" s="0"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C141" s="0"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C142" s="0"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C143" s="0"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C144" s="0"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C145" s="0"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C146" s="0"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C147" s="0"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="148">
       <c r="A148" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C148" s="0"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="149">
       <c r="A149" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C149" s="0"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C150" s="0"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C151" s="0"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C152" s="0"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C153" s="0"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="154">
       <c r="A154" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C154" s="0"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C155" s="0"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="156">
       <c r="A156" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C156" s="0"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C157" s="0"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="158">
       <c r="A158" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C158" s="0"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="159">
       <c r="A159" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C159" s="0"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="160">
       <c r="A160" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C160" s="0"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="161">
       <c r="A161" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C161" s="0"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="162">
       <c r="A162" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C162" s="0"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="163">
       <c r="A163" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C163" s="0"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="164">
       <c r="A164" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C164" s="0"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="165">
       <c r="A165" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C165" s="0"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="166">
       <c r="A166" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C166" s="0"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="167">
       <c r="A167" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C167" s="0"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="168">
       <c r="A168" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C168" s="0"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="169">
       <c r="A169" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C169" s="0"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="170">
       <c r="A170" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C170" s="0"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="171">
       <c r="A171" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C171" s="0"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="172">
       <c r="A172" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C172" s="0"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="173">
       <c r="A173" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C173" s="0"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="174">
       <c r="A174" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C174" s="0"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="175">
       <c r="A175" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C175" s="0"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="176">
       <c r="A176" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C176" s="0"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="177">
       <c r="A177" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C177" s="0"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="178">
       <c r="A178" s="1" t="s">
         <v>196</v>
       </c>
@@ -4052,52 +3942,47 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="179">
       <c r="A179" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C179" s="0"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="180">
       <c r="A180" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C180" s="0"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="181">
       <c r="A181" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C181" s="0"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="182">
       <c r="A182" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C182" s="0"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="183">
       <c r="A183" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C183" s="0"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="184">
       <c r="A184" s="1" t="s">
         <v>202</v>
       </c>
@@ -4108,7 +3993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="185">
       <c r="A185" s="1" t="s">
         <v>203</v>
       </c>
@@ -4119,7 +4004,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="186">
       <c r="A186" s="1" t="s">
         <v>204</v>
       </c>
@@ -4130,43 +4015,39 @@
         <v>205</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="187">
       <c r="A187" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C187" s="0"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="188">
       <c r="A188" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C188" s="0"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="189">
       <c r="A189" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C189" s="0"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="190">
       <c r="A190" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C190" s="0"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="191">
       <c r="A191" s="1" t="s">
         <v>210</v>
       </c>
@@ -4177,34 +4058,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="192">
       <c r="A192" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C192" s="0"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="193">
       <c r="A193" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C193" s="0"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="194">
       <c r="A194" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C194" s="0"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="195">
       <c r="A195" s="1" t="s">
         <v>214</v>
       </c>
@@ -4215,61 +4093,55 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="196">
       <c r="A196" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C196" s="0"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="197">
       <c r="A197" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C197" s="0"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="198">
       <c r="A198" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C198" s="0"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="199">
       <c r="A199" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C199" s="0"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="200">
       <c r="A200" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C200" s="0"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="201">
       <c r="A201" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C201" s="0"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="202">
       <c r="A202" s="1" t="s">
         <v>221</v>
       </c>
@@ -4280,43 +4152,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="203">
       <c r="A203" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C203" s="0"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="204">
       <c r="A204" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C204" s="0"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="205">
       <c r="A205" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C205" s="0"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="206">
       <c r="A206" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C206" s="0"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="207">
       <c r="A207" s="1" t="s">
         <v>226</v>
       </c>
@@ -4327,16 +4195,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="208">
       <c r="A208" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C208" s="0"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="209">
       <c r="A209" s="1" t="s">
         <v>228</v>
       </c>
@@ -4347,133 +4214,119 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="210">
       <c r="A210" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C210" s="0"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="211">
       <c r="A211" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C211" s="0"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="212">
       <c r="A212" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C212" s="0"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="213">
       <c r="A213" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C213" s="0"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="214">
       <c r="A214" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C214" s="0"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="215">
       <c r="A215" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C215" s="0"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="216">
       <c r="A216" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C216" s="0"/>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="217">
       <c r="A217" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C217" s="0"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="218">
       <c r="A218" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C218" s="0"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="219">
       <c r="A219" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C219" s="0"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="220">
       <c r="A220" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C220" s="0"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="221">
       <c r="A221" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C221" s="0"/>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="222">
       <c r="A222" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C222" s="0"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="223">
       <c r="A223" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C223" s="0"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="224">
       <c r="A224" s="1" t="s">
         <v>244</v>
       </c>
@@ -4484,52 +4337,47 @@
         <v>47</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="225">
       <c r="A225" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C225" s="0"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="226">
       <c r="A226" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C226" s="0"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="227">
       <c r="A227" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C227" s="0"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="228">
       <c r="A228" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C228" s="0"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="229">
       <c r="A229" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C229" s="0"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="230">
       <c r="A230" s="1" t="s">
         <v>250</v>
       </c>
@@ -4540,106 +4388,95 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="231">
       <c r="A231" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C231" s="0"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="232">
       <c r="A232" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C232" s="0"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="233">
       <c r="A233" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C233" s="0"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="234">
       <c r="A234" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C234" s="0"/>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="235">
       <c r="A235" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C235" s="0"/>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="236">
       <c r="A236" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C236" s="0"/>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="237">
       <c r="A237" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C237" s="0"/>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="238">
       <c r="A238" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C238" s="0"/>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="239">
       <c r="A239" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C239" s="0"/>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="240">
       <c r="A240" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C240" s="0"/>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="241">
       <c r="A241" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C241" s="0"/>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="242">
       <c r="A242" s="1" t="s">
         <v>262</v>
       </c>
@@ -4650,88 +4487,79 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="243">
       <c r="A243" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C243" s="0"/>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="244">
       <c r="A244" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C244" s="0"/>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="245">
       <c r="A245" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C245" s="0"/>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="246">
       <c r="A246" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C246" s="0"/>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="247">
       <c r="A247" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C247" s="0"/>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="248">
       <c r="A248" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C248" s="0"/>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="249">
       <c r="A249" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C249" s="0"/>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="250">
       <c r="A250" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C250" s="0"/>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="251">
       <c r="A251" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C251" s="0"/>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="252">
       <c r="A252" s="1" t="s">
         <v>272</v>
       </c>
@@ -4742,7 +4570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="253">
       <c r="A253" s="1" t="s">
         <v>273</v>
       </c>
@@ -4753,16 +4581,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="254">
       <c r="A254" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C254" s="0"/>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="255">
       <c r="A255" s="1" t="s">
         <v>275</v>
       </c>
@@ -4773,106 +4600,95 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="256">
       <c r="A256" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C256" s="0"/>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="257">
       <c r="A257" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C257" s="0"/>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="258">
       <c r="A258" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C258" s="0"/>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="259">
       <c r="A259" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C259" s="0"/>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="260">
       <c r="A260" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C260" s="0"/>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="261">
       <c r="A261" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C261" s="0"/>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="262">
       <c r="A262" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C262" s="0"/>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="263">
       <c r="A263" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C263" s="0"/>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="264">
       <c r="A264" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C264" s="0"/>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="265">
       <c r="A265" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C265" s="0"/>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="266">
       <c r="A266" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C266" s="0"/>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="267">
       <c r="A267" s="1" t="s">
         <v>287</v>
       </c>
@@ -4883,7 +4699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="268">
       <c r="A268" s="1" t="s">
         <v>288</v>
       </c>
@@ -4894,61 +4710,55 @@
         <v>96</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="269">
       <c r="A269" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C269" s="0"/>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="270">
       <c r="A270" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C270" s="0"/>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="271">
       <c r="A271" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C271" s="0"/>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="272">
       <c r="A272" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C272" s="0"/>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="273">
       <c r="A273" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C273" s="0"/>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="274">
       <c r="A274" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C274" s="0"/>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="275">
       <c r="A275" s="1" t="s">
         <v>295</v>
       </c>
@@ -4959,25 +4769,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="276">
       <c r="A276" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C276" s="0"/>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="277">
       <c r="A277" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C277" s="0"/>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="278">
       <c r="A278" s="1" t="s">
         <v>298</v>
       </c>
@@ -4988,16 +4796,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="279">
       <c r="A279" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C279" s="0"/>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="280">
       <c r="A280" s="1" t="s">
         <v>300</v>
       </c>
@@ -5008,7 +4815,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="281">
       <c r="A281" s="1" t="s">
         <v>301</v>
       </c>
@@ -5019,88 +4826,79 @@
         <v>205</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="282">
       <c r="A282" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C282" s="0"/>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="283">
       <c r="A283" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C283" s="0"/>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="284">
       <c r="A284" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C284" s="0"/>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="285">
       <c r="A285" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C285" s="0"/>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="286">
       <c r="A286" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C286" s="0"/>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="287">
       <c r="A287" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C287" s="0"/>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="288">
       <c r="A288" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C288" s="0"/>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="289">
       <c r="A289" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C289" s="0"/>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="290">
       <c r="A290" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C290" s="0"/>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="291">
       <c r="A291" s="1" t="s">
         <v>311</v>
       </c>
@@ -5111,34 +4909,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="292">
       <c r="A292" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C292" s="0"/>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="293">
       <c r="A293" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C293" s="0"/>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="294">
       <c r="A294" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C294" s="0"/>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="295">
       <c r="A295" s="1" t="s">
         <v>316</v>
       </c>
@@ -5149,133 +4944,119 @@
         <v>96</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="296">
       <c r="A296" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C296" s="0"/>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="297">
       <c r="A297" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C297" s="0"/>
-    </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="298">
       <c r="A298" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C298" s="0"/>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="299">
       <c r="A299" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C299" s="0"/>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="300">
       <c r="A300" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C300" s="0"/>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="301">
       <c r="A301" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C301" s="0"/>
-    </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="302">
       <c r="A302" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C302" s="0"/>
-    </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="303">
       <c r="A303" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C303" s="0"/>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="304">
       <c r="A304" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C304" s="0"/>
-    </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="305">
       <c r="A305" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C305" s="0"/>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="306">
       <c r="A306" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C306" s="0"/>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="307">
       <c r="A307" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C307" s="0"/>
-    </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="308">
       <c r="A308" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C308" s="0"/>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="309">
       <c r="A309" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C309" s="0"/>
-    </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="310">
       <c r="A310" s="1" t="s">
         <v>331</v>
       </c>
@@ -5286,7 +5067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="311">
       <c r="A311" s="1" t="s">
         <v>332</v>
       </c>
@@ -5297,61 +5078,55 @@
         <v>69</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="312">
       <c r="A312" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C312" s="0"/>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="313">
       <c r="A313" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C313" s="0"/>
-    </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="314">
       <c r="A314" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C314" s="0"/>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="315">
       <c r="A315" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C315" s="0"/>
-    </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="316">
       <c r="A316" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C316" s="0"/>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="317">
       <c r="A317" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C317" s="0"/>
-    </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="318">
       <c r="A318" s="1" t="s">
         <v>339</v>
       </c>
@@ -5362,124 +5137,111 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="319">
       <c r="A319" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C319" s="0"/>
-    </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="320">
       <c r="A320" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C320" s="0"/>
-    </row>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="321">
       <c r="A321" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C321" s="0"/>
-    </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="322">
       <c r="A322" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C322" s="0"/>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="323">
       <c r="A323" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C323" s="0"/>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="324">
       <c r="A324" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C324" s="0"/>
-    </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="325">
       <c r="A325" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C325" s="0"/>
-    </row>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="326">
       <c r="A326" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C326" s="0"/>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="327">
       <c r="A327" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C327" s="0"/>
-    </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="328">
       <c r="A328" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C328" s="0"/>
-    </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="329">
       <c r="A329" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C329" s="0"/>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="330">
       <c r="A330" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C330" s="0"/>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="331">
       <c r="A331" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C331" s="0"/>
-    </row>
-    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="332">
       <c r="A332" s="1" t="s">
         <v>354</v>
       </c>
@@ -5490,16 +5252,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="333">
       <c r="A333" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C333" s="0"/>
-    </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="334">
       <c r="A334" s="1" t="s">
         <v>356</v>
       </c>
@@ -5510,25 +5271,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="335">
       <c r="A335" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C335" s="0"/>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="336">
       <c r="A336" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C336" s="0"/>
-    </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="337">
       <c r="A337" s="1" t="s">
         <v>359</v>
       </c>
@@ -5539,52 +5298,47 @@
         <v>69</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="338">
       <c r="A338" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C338" s="0"/>
-    </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="339">
       <c r="A339" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C339" s="0"/>
-    </row>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="340">
       <c r="A340" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C340" s="0"/>
-    </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="341">
       <c r="A341" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C341" s="0"/>
-    </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="342">
       <c r="A342" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C342" s="0"/>
-    </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="343">
       <c r="A343" s="1" t="s">
         <v>365</v>
       </c>
@@ -5595,34 +5349,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="344">
       <c r="A344" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C344" s="0"/>
-    </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="345">
       <c r="A345" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C345" s="0"/>
-    </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="346">
       <c r="A346" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C346" s="0"/>
-    </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="347">
       <c r="A347" s="1" t="s">
         <v>369</v>
       </c>
@@ -5633,34 +5384,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="348">
       <c r="A348" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C348" s="0"/>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="349">
       <c r="A349" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C349" s="0"/>
-    </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="350">
       <c r="A350" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C350" s="0"/>
-    </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="351">
       <c r="A351" s="1" t="s">
         <v>373</v>
       </c>
@@ -5671,7 +5419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="352">
       <c r="A352" s="1" t="s">
         <v>374</v>
       </c>
@@ -5682,7 +5430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="353">
       <c r="A353" s="1" t="s">
         <v>375</v>
       </c>
@@ -5693,97 +5441,87 @@
         <v>86</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="354">
       <c r="A354" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C354" s="0"/>
-    </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="355">
       <c r="A355" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C355" s="0"/>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="356">
       <c r="A356" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C356" s="0"/>
-    </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="357">
       <c r="A357" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C357" s="0"/>
-    </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="358">
       <c r="A358" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C358" s="0"/>
-    </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="359">
       <c r="A359" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C359" s="0"/>
-    </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="360">
       <c r="A360" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C360" s="0"/>
-    </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="361">
       <c r="A361" s="1" t="s">
         <v>383</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C361" s="0"/>
-    </row>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="362">
       <c r="A362" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C362" s="0"/>
-    </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="363">
       <c r="A363" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C363" s="0"/>
-    </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="364">
       <c r="A364" s="1" t="s">
         <v>386</v>
       </c>
@@ -5794,142 +5532,127 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="365">
       <c r="A365" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C365" s="0"/>
-    </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="366">
       <c r="A366" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C366" s="0"/>
-    </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="367">
       <c r="A367" s="1" t="s">
         <v>389</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C367" s="0"/>
-    </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="368">
       <c r="A368" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C368" s="0"/>
-    </row>
-    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="369">
       <c r="A369" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C369" s="0"/>
-    </row>
-    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="370">
       <c r="A370" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C370" s="0"/>
-    </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="371">
       <c r="A371" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C371" s="0"/>
-    </row>
-    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="372">
       <c r="A372" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C372" s="0"/>
-    </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="373">
       <c r="A373" s="1" t="s">
         <v>395</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C373" s="0"/>
-    </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="374">
       <c r="A374" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C374" s="0"/>
-    </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="375">
       <c r="A375" s="1" t="s">
         <v>397</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C375" s="0"/>
-    </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="376">
       <c r="A376" s="1" t="s">
         <v>398</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C376" s="0"/>
-    </row>
-    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="377">
       <c r="A377" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C377" s="0"/>
-    </row>
-    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="378">
       <c r="A378" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C378" s="0"/>
-    </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="379">
       <c r="A379" s="1" t="s">
         <v>401</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C379" s="0"/>
-    </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="380">
       <c r="A380" s="1" t="s">
         <v>402</v>
       </c>
@@ -5940,475 +5663,423 @@
         <v>29</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="381">
       <c r="A381" s="1" t="s">
         <v>403</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C381" s="0"/>
-    </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="382">
       <c r="A382" s="1" t="s">
         <v>404</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C382" s="0"/>
-    </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="383">
       <c r="A383" s="1" t="s">
         <v>405</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C383" s="0"/>
-    </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="384">
       <c r="A384" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C384" s="0"/>
-    </row>
-    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="385">
       <c r="A385" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C385" s="0"/>
-    </row>
-    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="386">
       <c r="A386" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C386" s="0"/>
-    </row>
-    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="387">
       <c r="A387" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C387" s="0"/>
-    </row>
-    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="388">
       <c r="A388" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C388" s="0"/>
-    </row>
-    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="389">
       <c r="A389" s="1" t="s">
         <v>411</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C389" s="0"/>
-    </row>
-    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="390">
       <c r="A390" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C390" s="0"/>
-    </row>
-    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="391">
       <c r="A391" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C391" s="0"/>
-    </row>
-    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="392">
       <c r="A392" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C392" s="0"/>
-    </row>
-    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="393">
       <c r="A393" s="1" t="s">
         <v>416</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C393" s="0"/>
-    </row>
-    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="394">
       <c r="A394" s="1" t="s">
         <v>417</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C394" s="0"/>
-    </row>
-    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="395">
       <c r="A395" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C395" s="0"/>
-    </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="396">
       <c r="A396" s="1" t="s">
         <v>419</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C396" s="0"/>
-    </row>
-    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="397">
       <c r="A397" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C397" s="0"/>
-    </row>
-    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="398">
       <c r="A398" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C398" s="0"/>
-    </row>
-    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="399">
       <c r="A399" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C399" s="0"/>
-    </row>
-    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="400">
       <c r="A400" s="1" t="s">
         <v>423</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C400" s="0"/>
-    </row>
-    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="401">
       <c r="A401" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C401" s="0"/>
-    </row>
-    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="402">
       <c r="A402" s="1" t="s">
         <v>425</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C402" s="0"/>
-    </row>
-    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="403">
       <c r="A403" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C403" s="0"/>
-    </row>
-    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="404">
       <c r="A404" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C404" s="0"/>
-    </row>
-    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="405">
       <c r="A405" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C405" s="0"/>
-    </row>
-    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="406">
       <c r="A406" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C406" s="0"/>
-    </row>
-    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="407">
       <c r="A407" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C407" s="0"/>
-    </row>
-    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="408">
       <c r="A408" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C408" s="0"/>
-    </row>
-    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="409">
       <c r="A409" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C409" s="0"/>
-    </row>
-    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="410">
       <c r="A410" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C410" s="0"/>
-    </row>
-    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="411">
       <c r="A411" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C411" s="0"/>
-    </row>
-    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="412">
       <c r="A412" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C412" s="0"/>
-    </row>
-    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="413">
       <c r="A413" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C413" s="0"/>
-    </row>
-    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="414">
       <c r="A414" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C414" s="0"/>
-    </row>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="415">
       <c r="A415" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C415" s="0"/>
-    </row>
-    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="416">
       <c r="A416" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C416" s="0"/>
-    </row>
-    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="417">
       <c r="A417" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C417" s="0"/>
-    </row>
-    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="418">
       <c r="A418" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C418" s="0"/>
-    </row>
-    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="419">
       <c r="A419" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C419" s="0"/>
-    </row>
-    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="420">
       <c r="A420" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C420" s="0"/>
-    </row>
-    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="421">
       <c r="A421" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C421" s="0"/>
-    </row>
-    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="422">
       <c r="A422" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C422" s="0"/>
-    </row>
-    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="423">
       <c r="A423" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C423" s="0"/>
-    </row>
-    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="424">
       <c r="A424" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C424" s="0"/>
-    </row>
-    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="425">
       <c r="A425" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C425" s="0"/>
-    </row>
-    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="426">
       <c r="A426" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C426" s="0"/>
-    </row>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="427">
       <c r="A427" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C427" s="0"/>
-    </row>
-    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="428">
       <c r="A428" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C428" s="0"/>
-    </row>
-    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="429">
       <c r="A429" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C429" s="0"/>
-    </row>
-    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="430">
       <c r="A430" s="1" t="s">
         <v>453</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C430" s="0"/>
-    </row>
-    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="431">
       <c r="A431" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C431" s="0"/>
-    </row>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="432">
       <c r="A432" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C432" s="0"/>
-    </row>
-    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="433">
       <c r="A433" s="1" t="s">
         <v>456</v>
       </c>
@@ -6419,475 +6090,423 @@
         <v>69</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="434">
       <c r="A434" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C434" s="0"/>
-    </row>
-    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="435">
       <c r="A435" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C435" s="0"/>
-    </row>
-    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="436">
       <c r="A436" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C436" s="0"/>
-    </row>
-    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="437">
       <c r="A437" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C437" s="0"/>
-    </row>
-    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="438">
       <c r="A438" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C438" s="0"/>
-    </row>
-    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="439">
       <c r="A439" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C439" s="0"/>
-    </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="440">
       <c r="A440" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C440" s="0"/>
-    </row>
-    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="441">
       <c r="A441" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C441" s="0"/>
-    </row>
-    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="442">
       <c r="A442" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C442" s="0"/>
-    </row>
-    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="443">
       <c r="A443" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C443" s="0"/>
-    </row>
-    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="444">
       <c r="A444" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C444" s="0"/>
-    </row>
-    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="445">
       <c r="A445" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C445" s="0"/>
-    </row>
-    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="446">
       <c r="A446" s="1" t="s">
         <v>469</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C446" s="0"/>
-    </row>
-    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="447">
       <c r="A447" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C447" s="0"/>
-    </row>
-    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="448">
       <c r="A448" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C448" s="0"/>
-    </row>
-    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="449">
       <c r="A449" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C449" s="0"/>
-    </row>
-    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="450">
       <c r="A450" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C450" s="0"/>
-    </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="451">
       <c r="A451" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C451" s="0"/>
-    </row>
-    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="452">
       <c r="A452" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C452" s="0"/>
-    </row>
-    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="453">
       <c r="A453" s="1" t="s">
         <v>476</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C453" s="0"/>
-    </row>
-    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="454">
       <c r="A454" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C454" s="0"/>
-    </row>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="455">
       <c r="A455" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C455" s="0"/>
-    </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="456">
       <c r="A456" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C456" s="0"/>
-    </row>
-    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="457">
       <c r="A457" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C457" s="0"/>
-    </row>
-    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="458">
       <c r="A458" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C458" s="0"/>
-    </row>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="459">
       <c r="A459" s="1" t="s">
         <v>482</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C459" s="0"/>
-    </row>
-    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="460">
       <c r="A460" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C460" s="0"/>
-    </row>
-    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="461">
       <c r="A461" s="1" t="s">
         <v>484</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C461" s="0"/>
-    </row>
-    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="462">
       <c r="A462" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C462" s="0"/>
-    </row>
-    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="463">
       <c r="A463" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C463" s="0"/>
-    </row>
-    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="464">
       <c r="A464" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C464" s="0"/>
-    </row>
-    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="465">
       <c r="A465" s="1" t="s">
         <v>488</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C465" s="0"/>
-    </row>
-    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="466">
       <c r="A466" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C466" s="0"/>
-    </row>
-    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="467">
       <c r="A467" s="1" t="s">
         <v>490</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C467" s="0"/>
-    </row>
-    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="468">
       <c r="A468" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C468" s="0"/>
-    </row>
-    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="469">
       <c r="A469" s="1" t="s">
         <v>492</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C469" s="0"/>
-    </row>
-    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="470">
       <c r="A470" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C470" s="0"/>
-    </row>
-    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="471">
       <c r="A471" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C471" s="0"/>
-    </row>
-    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="472">
       <c r="A472" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C472" s="0"/>
-    </row>
-    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="473">
       <c r="A473" s="1" t="s">
         <v>496</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C473" s="0"/>
-    </row>
-    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="474">
       <c r="A474" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C474" s="0"/>
-    </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="475">
       <c r="A475" s="1" t="s">
         <v>498</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C475" s="0"/>
-    </row>
-    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="476">
       <c r="A476" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C476" s="0"/>
-    </row>
-    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="477">
       <c r="A477" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C477" s="0"/>
-    </row>
-    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="478">
       <c r="A478" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C478" s="0"/>
-    </row>
-    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="479">
       <c r="A479" s="1" t="s">
         <v>502</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C479" s="0"/>
-    </row>
-    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="480">
       <c r="A480" s="1" t="s">
         <v>503</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C480" s="0"/>
-    </row>
-    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="481">
       <c r="A481" s="1" t="s">
         <v>504</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C481" s="0"/>
-    </row>
-    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="482">
       <c r="A482" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C482" s="0"/>
-    </row>
-    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="483">
       <c r="A483" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C483" s="0"/>
-    </row>
-    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="484">
       <c r="A484" s="1" t="s">
         <v>507</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C484" s="0"/>
-    </row>
-    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="485">
       <c r="A485" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C485" s="0"/>
-    </row>
-    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="486">
       <c r="A486" s="1" t="s">
         <v>509</v>
       </c>
@@ -6898,133 +6517,119 @@
         <v>86</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="487">
       <c r="A487" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C487" s="0"/>
-    </row>
-    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="488">
       <c r="A488" s="1" t="s">
         <v>511</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C488" s="0"/>
-    </row>
-    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="489">
       <c r="A489" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C489" s="0"/>
-    </row>
-    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="490">
       <c r="A490" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C490" s="0"/>
-    </row>
-    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="491">
       <c r="A491" s="1" t="s">
         <v>514</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C491" s="0"/>
-    </row>
-    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="492">
       <c r="A492" s="1" t="s">
         <v>515</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C492" s="0"/>
-    </row>
-    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="493">
       <c r="A493" s="1" t="s">
         <v>516</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C493" s="0"/>
-    </row>
-    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="494">
       <c r="A494" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C494" s="0"/>
-    </row>
-    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="495">
       <c r="A495" s="1" t="s">
         <v>518</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C495" s="0"/>
-    </row>
-    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="496">
       <c r="A496" s="1" t="s">
         <v>519</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C496" s="0"/>
-    </row>
-    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="497">
       <c r="A497" s="1" t="s">
         <v>520</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C497" s="0"/>
-    </row>
-    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="498">
       <c r="A498" s="1" t="s">
         <v>521</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C498" s="0"/>
-    </row>
-    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="499">
       <c r="A499" s="1" t="s">
         <v>522</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C499" s="0"/>
-    </row>
-    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="500">
       <c r="A500" s="1" t="s">
         <v>523</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C500" s="0"/>
-    </row>
-    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="501">
       <c r="A501" s="1" t="s">
         <v>524</v>
       </c>
@@ -7038,7 +6643,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -7051,20 +6656,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A182" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C205" activeCellId="0" pane="topLeft" sqref="C205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="30.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="31.1686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.9686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>525</v>
       </c>
@@ -7075,7 +6679,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
         <v>526</v>
       </c>
@@ -7083,7 +6687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
         <v>527</v>
       </c>
@@ -7091,7 +6695,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
         <v>528</v>
       </c>
@@ -7099,7 +6703,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
         <v>529</v>
       </c>
@@ -7107,7 +6711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
         <v>14</v>
       </c>
@@ -7115,7 +6719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
         <v>530</v>
       </c>
@@ -7123,7 +6727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
         <v>531</v>
       </c>
@@ -7131,7 +6735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
         <v>532</v>
       </c>
@@ -7139,7 +6743,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
         <v>533</v>
       </c>
@@ -7147,7 +6751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
         <v>534</v>
       </c>
@@ -7155,7 +6759,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
         <v>535</v>
       </c>
@@ -7163,7 +6767,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
         <v>536</v>
       </c>
@@ -7171,7 +6775,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
         <v>537</v>
       </c>
@@ -7179,7 +6783,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
         <v>538</v>
       </c>
@@ -7187,7 +6791,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
         <v>539</v>
       </c>
@@ -7195,7 +6799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
         <v>540</v>
       </c>
@@ -7206,7 +6810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
         <v>541</v>
       </c>
@@ -7214,7 +6818,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
         <v>542</v>
       </c>
@@ -7222,7 +6826,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
         <v>543</v>
       </c>
@@ -7230,7 +6834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
         <v>544</v>
       </c>
@@ -7238,7 +6842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
         <v>545</v>
       </c>
@@ -7246,7 +6850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="0" t="s">
         <v>546</v>
       </c>
@@ -7254,7 +6858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="0" t="s">
         <v>547</v>
       </c>
@@ -7262,7 +6866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="0" t="s">
         <v>548</v>
       </c>
@@ -7270,7 +6874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
         <v>549</v>
       </c>
@@ -7278,7 +6882,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="0" t="s">
         <v>550</v>
       </c>
@@ -7286,7 +6890,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="0" t="s">
         <v>551</v>
       </c>
@@ -7294,7 +6898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
         <v>552</v>
       </c>
@@ -7302,7 +6906,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
         <v>553</v>
       </c>
@@ -7313,7 +6917,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="0" t="s">
         <v>554</v>
       </c>
@@ -7321,7 +6925,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="32">
       <c r="A32" s="0" t="s">
         <v>555</v>
       </c>
@@ -7332,7 +6936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
         <v>556</v>
       </c>
@@ -7340,7 +6944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
         <v>557</v>
       </c>
@@ -7351,7 +6955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="A35" s="0" t="s">
         <v>558</v>
       </c>
@@ -7359,7 +6963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="0" t="s">
         <v>559</v>
       </c>
@@ -7367,7 +6971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="0" t="s">
         <v>560</v>
       </c>
@@ -7375,7 +6979,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="0" t="s">
         <v>561</v>
       </c>
@@ -7383,7 +6987,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="0" t="s">
         <v>562</v>
       </c>
@@ -7391,7 +6995,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="0" t="s">
         <v>563</v>
       </c>
@@ -7399,7 +7003,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="A41" s="0" t="s">
         <v>564</v>
       </c>
@@ -7407,7 +7011,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="0" t="s">
         <v>565</v>
       </c>
@@ -7415,7 +7019,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="0" t="s">
         <v>566</v>
       </c>
@@ -7423,7 +7027,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="A44" s="0" t="s">
         <v>567</v>
       </c>
@@ -7431,7 +7035,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="0" t="s">
         <v>95</v>
       </c>
@@ -7439,7 +7043,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="46">
       <c r="A46" s="0" t="s">
         <v>568</v>
       </c>
@@ -7450,7 +7054,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="0" t="s">
         <v>569</v>
       </c>
@@ -7458,7 +7062,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="0" t="s">
         <v>570</v>
       </c>
@@ -7466,7 +7070,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="A49" s="0" t="s">
         <v>571</v>
       </c>
@@ -7474,7 +7078,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="A50" s="0" t="s">
         <v>572</v>
       </c>
@@ -7482,7 +7086,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="A51" s="0" t="s">
         <v>573</v>
       </c>
@@ -7490,7 +7094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="52">
       <c r="A52" s="0" t="s">
         <v>574</v>
       </c>
@@ -7498,7 +7102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="A53" s="0" t="s">
         <v>575</v>
       </c>
@@ -7509,7 +7113,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="54">
       <c r="A54" s="0" t="s">
         <v>576</v>
       </c>
@@ -7520,7 +7124,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="55">
       <c r="A55" s="0" t="s">
         <v>577</v>
       </c>
@@ -7531,7 +7135,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="0" t="s">
         <v>578</v>
       </c>
@@ -7539,7 +7143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="57">
       <c r="A57" s="0" t="s">
         <v>579</v>
       </c>
@@ -7550,7 +7154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="58">
       <c r="A58" s="0" t="s">
         <v>64</v>
       </c>
@@ -7558,7 +7162,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="59">
       <c r="A59" s="0" t="s">
         <v>580</v>
       </c>
@@ -7566,7 +7170,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="60">
       <c r="A60" s="0" t="s">
         <v>581</v>
       </c>
@@ -7574,7 +7178,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="61">
       <c r="A61" s="0" t="s">
         <v>582</v>
       </c>
@@ -7582,7 +7186,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="62">
       <c r="A62" s="0" t="s">
         <v>583</v>
       </c>
@@ -7590,7 +7194,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="63">
       <c r="A63" s="0" t="s">
         <v>584</v>
       </c>
@@ -7598,7 +7202,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="64">
       <c r="A64" s="0" t="s">
         <v>585</v>
       </c>
@@ -7606,7 +7210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="0" t="s">
         <v>586</v>
       </c>
@@ -7614,7 +7218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="A66" s="0" t="s">
         <v>587</v>
       </c>
@@ -7625,7 +7229,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="67">
       <c r="A67" s="0" t="s">
         <v>588</v>
       </c>
@@ -7633,7 +7237,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="68">
       <c r="A68" s="0" t="s">
         <v>589</v>
       </c>
@@ -7641,7 +7245,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="0" t="s">
         <v>590</v>
       </c>
@@ -7649,7 +7253,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="70">
       <c r="A70" s="0" t="s">
         <v>591</v>
       </c>
@@ -7657,7 +7261,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="0" t="s">
         <v>73</v>
       </c>
@@ -7665,7 +7269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="72">
       <c r="A72" s="0" t="s">
         <v>592</v>
       </c>
@@ -7673,7 +7277,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="73">
       <c r="A73" s="0" t="s">
         <v>593</v>
       </c>
@@ -7681,7 +7285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="0" t="s">
         <v>594</v>
       </c>
@@ -7692,7 +7296,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="75">
       <c r="A75" s="0" t="s">
         <v>595</v>
       </c>
@@ -7700,7 +7304,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="A76" s="0" t="s">
         <v>596</v>
       </c>
@@ -7708,7 +7312,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="A77" s="0" t="s">
         <v>231</v>
       </c>
@@ -7716,7 +7320,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="78">
       <c r="A78" s="0" t="s">
         <v>597</v>
       </c>
@@ -7727,7 +7331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="79">
       <c r="A79" s="0" t="s">
         <v>598</v>
       </c>
@@ -7738,7 +7342,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="80">
       <c r="A80" s="0" t="s">
         <v>599</v>
       </c>
@@ -7746,7 +7350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="81">
       <c r="A81" s="0" t="s">
         <v>600</v>
       </c>
@@ -7754,7 +7358,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="82">
       <c r="A82" s="0" t="s">
         <v>601</v>
       </c>
@@ -7762,7 +7366,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="83">
       <c r="A83" s="0" t="s">
         <v>602</v>
       </c>
@@ -7770,7 +7374,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="84">
       <c r="A84" s="0" t="s">
         <v>603</v>
       </c>
@@ -7778,7 +7382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="85">
       <c r="A85" s="0" t="s">
         <v>604</v>
       </c>
@@ -7786,7 +7390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="86">
       <c r="A86" s="0" t="s">
         <v>605</v>
       </c>
@@ -7794,7 +7398,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="87">
       <c r="A87" s="0" t="s">
         <v>606</v>
       </c>
@@ -7802,7 +7406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="88">
       <c r="A88" s="0" t="s">
         <v>607</v>
       </c>
@@ -7810,7 +7414,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="89">
       <c r="A89" s="0" t="s">
         <v>608</v>
       </c>
@@ -7818,7 +7422,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="90">
       <c r="A90" s="0" t="s">
         <v>609</v>
       </c>
@@ -7826,7 +7430,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="91">
       <c r="A91" s="0" t="s">
         <v>610</v>
       </c>
@@ -7837,7 +7441,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="92">
       <c r="A92" s="0" t="s">
         <v>611</v>
       </c>
@@ -7845,7 +7449,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="93">
       <c r="A93" s="0" t="s">
         <v>612</v>
       </c>
@@ -7853,7 +7457,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="94">
       <c r="A94" s="0" t="s">
         <v>613</v>
       </c>
@@ -7861,7 +7465,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="95">
       <c r="A95" s="0" t="s">
         <v>614</v>
       </c>
@@ -7869,7 +7473,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="96">
       <c r="A96" s="0" t="s">
         <v>615</v>
       </c>
@@ -7877,7 +7481,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="97">
       <c r="A97" s="0" t="s">
         <v>616</v>
       </c>
@@ -7885,7 +7489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="98">
       <c r="A98" s="0" t="s">
         <v>617</v>
       </c>
@@ -7893,7 +7497,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="99">
       <c r="A99" s="0" t="s">
         <v>618</v>
       </c>
@@ -7901,7 +7505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="100">
       <c r="A100" s="0" t="s">
         <v>619</v>
       </c>
@@ -7909,7 +7513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="101">
       <c r="A101" s="0" t="s">
         <v>620</v>
       </c>
@@ -7917,7 +7521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="102">
       <c r="A102" s="0" t="s">
         <v>621</v>
       </c>
@@ -7925,7 +7529,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="103">
       <c r="A103" s="0" t="s">
         <v>622</v>
       </c>
@@ -7933,7 +7537,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="104">
       <c r="A104" s="0" t="s">
         <v>623</v>
       </c>
@@ -7941,7 +7545,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="105">
       <c r="A105" s="0" t="s">
         <v>624</v>
       </c>
@@ -7949,7 +7553,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="106">
       <c r="A106" s="0" t="s">
         <v>625</v>
       </c>
@@ -7957,7 +7561,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="107">
       <c r="A107" s="0" t="s">
         <v>626</v>
       </c>
@@ -7965,7 +7569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="108">
       <c r="A108" s="0" t="s">
         <v>627</v>
       </c>
@@ -7973,7 +7577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="109">
       <c r="A109" s="0" t="s">
         <v>628</v>
       </c>
@@ -7981,7 +7585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="110">
       <c r="A110" s="0" t="s">
         <v>629</v>
       </c>
@@ -7989,7 +7593,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="111">
       <c r="A111" s="0" t="s">
         <v>630</v>
       </c>
@@ -7997,7 +7601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="112">
       <c r="A112" s="0" t="s">
         <v>631</v>
       </c>
@@ -8005,7 +7609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="113">
       <c r="A113" s="0" t="s">
         <v>632</v>
       </c>
@@ -8013,7 +7617,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="114">
       <c r="A114" s="0" t="s">
         <v>633</v>
       </c>
@@ -8021,7 +7625,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="115">
       <c r="A115" s="0" t="s">
         <v>634</v>
       </c>
@@ -8029,7 +7633,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="116">
       <c r="A116" s="0" t="s">
         <v>635</v>
       </c>
@@ -8037,7 +7641,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="117">
       <c r="A117" s="0" t="s">
         <v>636</v>
       </c>
@@ -8045,7 +7649,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="118">
       <c r="A118" s="0" t="s">
         <v>112</v>
       </c>
@@ -8053,7 +7657,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="119">
       <c r="A119" s="0" t="s">
         <v>637</v>
       </c>
@@ -8061,7 +7665,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="120">
       <c r="A120" s="0" t="s">
         <v>638</v>
       </c>
@@ -8072,7 +7676,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="121">
       <c r="A121" s="0" t="s">
         <v>639</v>
       </c>
@@ -8080,7 +7684,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="122">
       <c r="A122" s="0" t="s">
         <v>640</v>
       </c>
@@ -8088,7 +7692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="123">
       <c r="A123" s="0" t="s">
         <v>641</v>
       </c>
@@ -8096,7 +7700,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="124">
       <c r="A124" s="0" t="s">
         <v>642</v>
       </c>
@@ -8107,7 +7711,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="125">
       <c r="A125" s="0" t="s">
         <v>643</v>
       </c>
@@ -8118,7 +7722,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="126">
       <c r="A126" s="0" t="s">
         <v>644</v>
       </c>
@@ -8126,7 +7730,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="127">
       <c r="A127" s="0" t="s">
         <v>348</v>
       </c>
@@ -8134,7 +7738,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="128">
       <c r="A128" s="0" t="s">
         <v>645</v>
       </c>
@@ -8142,7 +7746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="129">
       <c r="A129" s="0" t="s">
         <v>646</v>
       </c>
@@ -8150,7 +7754,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="130">
       <c r="A130" s="0" t="s">
         <v>647</v>
       </c>
@@ -8158,7 +7762,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="131">
       <c r="A131" s="0" t="s">
         <v>648</v>
       </c>
@@ -8166,7 +7770,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="132">
       <c r="A132" s="0" t="s">
         <v>649</v>
       </c>
@@ -8174,7 +7778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="133">
       <c r="A133" s="0" t="s">
         <v>650</v>
       </c>
@@ -8182,7 +7786,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="134">
       <c r="A134" s="0" t="s">
         <v>651</v>
       </c>
@@ -8190,7 +7794,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="135">
       <c r="A135" s="0" t="s">
         <v>652</v>
       </c>
@@ -8198,7 +7802,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="136">
       <c r="A136" s="0" t="s">
         <v>653</v>
       </c>
@@ -8206,7 +7810,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="137">
       <c r="A137" s="0" t="s">
         <v>654</v>
       </c>
@@ -8214,7 +7818,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="138">
       <c r="A138" s="0" t="s">
         <v>655</v>
       </c>
@@ -8222,7 +7826,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="139">
       <c r="A139" s="0" t="s">
         <v>656</v>
       </c>
@@ -8230,7 +7834,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="140">
       <c r="A140" s="0" t="s">
         <v>657</v>
       </c>
@@ -8238,7 +7842,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="141">
       <c r="A141" s="0" t="s">
         <v>658</v>
       </c>
@@ -8246,7 +7850,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="142">
       <c r="A142" s="0" t="s">
         <v>659</v>
       </c>
@@ -8257,7 +7861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="143">
       <c r="A143" s="0" t="s">
         <v>660</v>
       </c>
@@ -8265,7 +7869,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="144">
       <c r="A144" s="0" t="s">
         <v>661</v>
       </c>
@@ -8273,7 +7877,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="145">
       <c r="A145" s="0" t="s">
         <v>662</v>
       </c>
@@ -8281,7 +7885,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="146">
       <c r="A146" s="0" t="s">
         <v>663</v>
       </c>
@@ -8289,7 +7893,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="147">
       <c r="A147" s="0" t="s">
         <v>664</v>
       </c>
@@ -8297,7 +7901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="148">
       <c r="A148" s="0" t="s">
         <v>665</v>
       </c>
@@ -8305,7 +7909,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="149">
       <c r="A149" s="0" t="s">
         <v>666</v>
       </c>
@@ -8313,7 +7917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="150">
       <c r="A150" s="0" t="s">
         <v>667</v>
       </c>
@@ -8321,7 +7925,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="151">
       <c r="A151" s="0" t="s">
         <v>668</v>
       </c>
@@ -8329,7 +7933,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="152">
       <c r="A152" s="0" t="s">
         <v>669</v>
       </c>
@@ -8337,7 +7941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="153">
       <c r="A153" s="0" t="s">
         <v>670</v>
       </c>
@@ -8345,7 +7949,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="154">
       <c r="A154" s="0" t="s">
         <v>671</v>
       </c>
@@ -8353,7 +7957,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="155">
       <c r="A155" s="0" t="s">
         <v>672</v>
       </c>
@@ -8361,7 +7965,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="156">
       <c r="A156" s="0" t="s">
         <v>96</v>
       </c>
@@ -8369,7 +7973,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="157">
       <c r="A157" s="0" t="s">
         <v>673</v>
       </c>
@@ -8377,7 +7981,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="158">
       <c r="A158" s="0" t="s">
         <v>674</v>
       </c>
@@ -8385,7 +7989,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="159">
       <c r="A159" s="0" t="s">
         <v>675</v>
       </c>
@@ -8393,7 +7997,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="160">
       <c r="A160" s="0" t="s">
         <v>676</v>
       </c>
@@ -8401,7 +8005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="161">
       <c r="A161" s="0" t="s">
         <v>677</v>
       </c>
@@ -8409,7 +8013,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="162">
       <c r="A162" s="0" t="s">
         <v>678</v>
       </c>
@@ -8417,7 +8021,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="163">
       <c r="A163" s="0" t="s">
         <v>679</v>
       </c>
@@ -8425,7 +8029,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="164">
       <c r="A164" s="0" t="s">
         <v>680</v>
       </c>
@@ -8433,7 +8037,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="165">
       <c r="A165" s="0" t="s">
         <v>681</v>
       </c>
@@ -8441,7 +8045,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="166">
       <c r="A166" s="0" t="s">
         <v>682</v>
       </c>
@@ -8449,7 +8053,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="167">
       <c r="A167" s="0" t="s">
         <v>683</v>
       </c>
@@ -8457,7 +8061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="168">
       <c r="A168" s="0" t="s">
         <v>684</v>
       </c>
@@ -8465,7 +8069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="169">
       <c r="A169" s="0" t="s">
         <v>685</v>
       </c>
@@ -8473,7 +8077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="170">
       <c r="A170" s="0" t="s">
         <v>686</v>
       </c>
@@ -8481,7 +8085,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="171">
       <c r="A171" s="0" t="s">
         <v>687</v>
       </c>
@@ -8489,7 +8093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="172">
       <c r="A172" s="0" t="s">
         <v>688</v>
       </c>
@@ -8497,7 +8101,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="173">
       <c r="A173" s="0" t="s">
         <v>689</v>
       </c>
@@ -8505,7 +8109,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="174">
       <c r="A174" s="0" t="s">
         <v>690</v>
       </c>
@@ -8513,7 +8117,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="175">
       <c r="A175" s="0" t="s">
         <v>691</v>
       </c>
@@ -8521,18 +8125,314 @@
         <v>64</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="176">
       <c r="A176" s="0" t="s">
         <v>692</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="177">
+      <c r="A177" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="178">
+      <c r="A178" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="179">
+      <c r="A179" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
+      <c r="A180" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
+      <c r="A181" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
+      <c r="A182" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
+      <c r="A183" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
+      <c r="A184" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
+      <c r="A185" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
+      <c r="A186" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
+      <c r="A187" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
+      <c r="A188" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
+      <c r="A189" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
+      <c r="A190" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
+      <c r="A191" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
+      <c r="A192" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
+      <c r="A193" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
+      <c r="A194" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
+      <c r="A195" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
+      <c r="A196" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
+      <c r="A197" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
+      <c r="A198" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
+      <c r="A199" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
+      <c r="A200" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
+      <c r="A201" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
+      <c r="A202" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
+      <c r="A203" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
+      <c r="A204" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
+      <c r="A205" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
+      <c r="A206" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
+      <c r="A207" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
+      <c r="A208" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
+      <c r="A209" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
+      <c r="A210" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
+      <c r="A211" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
+      <c r="A212" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
+      <c r="A213" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -8547,37 +8447,36 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E11" activeCellId="0" pane="topLeft" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.6549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>693</v>
+        <v>730</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>694</v>
+        <v>731</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>695</v>
+        <v>732</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>86</v>
@@ -8586,41 +8485,41 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>696</v>
+        <v>733</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>697</v>
+        <v>734</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>699</v>
+        <v>736</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>700</v>
+        <v>737</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>29</v>
@@ -8629,33 +8528,33 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>701</v>
+        <v>738</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>702</v>
+        <v>739</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>703</v>
+        <v>740</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>704</v>
+        <v>741</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>47</v>
@@ -8664,7 +8563,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -8677,96 +8576,95 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B32" activeCellId="0" pane="topLeft" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.7647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.321568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>705</v>
+        <v>742</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
         <v>73</v>
       </c>
@@ -8774,66 +8672,66 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="B14" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>718</v>
+        <v>755</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
         <v>112</v>
       </c>
@@ -8841,88 +8739,128 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="B25" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="B27" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="A28" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="29">
+      <c r="A29" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="A30" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="31">
+      <c r="A31" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="32">
+      <c r="A32" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/categotry_mapping.xlsx
+++ b/categotry_mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="176" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="176" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Alexa" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="779">
   <si>
     <t>Top/Adult/</t>
   </si>
@@ -2325,6 +2325,36 @@
   </si>
   <si>
     <t>Audio/Video Clips</t>
+  </si>
+  <si>
+    <t>Search Engines/Portals</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Online Meetings</t>
+  </si>
+  <si>
+    <t>Charitable Organizations</t>
+  </si>
+  <si>
+    <t>Personals/Dating</t>
+  </si>
+  <si>
+    <t>Brokerage/Trading</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Placeholders</t>
+  </si>
+  <si>
+    <t>TV/Video Streams</t>
   </si>
 </sst>
 </file>
@@ -2428,16 +2458,16 @@
   </sheetPr>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A373" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B402" activeCellId="0" pane="topLeft" sqref="B402"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A60" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C78" activeCellId="0" pane="topLeft" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.678431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.1098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.0941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.2196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.8627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.2901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.2196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.7490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -6658,14 +6688,14 @@
   </sheetPr>
   <dimension ref="A1:C213"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A182" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C205" activeCellId="0" pane="topLeft" sqref="C205"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A182" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A222" activeCellId="0" pane="topLeft" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="31.1686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.9686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="31.321568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.1411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.7490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8157,7 +8187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="180">
       <c r="A180" s="0" t="s">
         <v>696</v>
       </c>
@@ -8165,7 +8195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="181">
       <c r="A181" s="0" t="s">
         <v>697</v>
       </c>
@@ -8173,7 +8203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="182">
       <c r="A182" s="0" t="s">
         <v>698</v>
       </c>
@@ -8181,7 +8211,7 @@
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="183">
       <c r="A183" s="0" t="s">
         <v>699</v>
       </c>
@@ -8189,7 +8219,7 @@
         <v>231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="184">
       <c r="A184" s="0" t="s">
         <v>700</v>
       </c>
@@ -8197,7 +8227,7 @@
         <v>348</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="185">
       <c r="A185" s="0" t="s">
         <v>701</v>
       </c>
@@ -8205,7 +8235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="186">
       <c r="A186" s="0" t="s">
         <v>702</v>
       </c>
@@ -8213,23 +8243,23 @@
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="187">
       <c r="A187" s="0" t="s">
         <v>703</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="188">
       <c r="A188" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="189">
       <c r="A189" s="0" t="s">
         <v>705</v>
       </c>
@@ -8237,7 +8267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="190">
       <c r="A190" s="0" t="s">
         <v>706</v>
       </c>
@@ -8245,7 +8275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="191">
       <c r="A191" s="0" t="s">
         <v>707</v>
       </c>
@@ -8253,7 +8283,7 @@
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="192">
       <c r="A192" s="0" t="s">
         <v>708</v>
       </c>
@@ -8261,7 +8291,7 @@
         <v>205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="193">
       <c r="A193" s="0" t="s">
         <v>709</v>
       </c>
@@ -8269,7 +8299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="194">
       <c r="A194" s="0" t="s">
         <v>710</v>
       </c>
@@ -8277,7 +8307,7 @@
         <v>231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="195">
       <c r="A195" s="0" t="s">
         <v>711</v>
       </c>
@@ -8285,7 +8315,7 @@
         <v>415</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="196">
       <c r="A196" s="0" t="s">
         <v>712</v>
       </c>
@@ -8293,7 +8323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="197">
       <c r="A197" s="0" t="s">
         <v>713</v>
       </c>
@@ -8301,7 +8331,7 @@
         <v>348</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="198">
       <c r="A198" s="0" t="s">
         <v>714</v>
       </c>
@@ -8309,7 +8339,7 @@
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="199">
       <c r="A199" s="0" t="s">
         <v>715</v>
       </c>
@@ -8317,7 +8347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="200">
       <c r="A200" s="0" t="s">
         <v>716</v>
       </c>
@@ -8325,7 +8355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="201">
       <c r="A201" s="0" t="s">
         <v>717</v>
       </c>
@@ -8333,7 +8363,7 @@
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="202">
       <c r="A202" s="0" t="s">
         <v>718</v>
       </c>
@@ -8341,7 +8371,7 @@
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="203">
       <c r="A203" s="0" t="s">
         <v>719</v>
       </c>
@@ -8349,7 +8379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="204">
       <c r="A204" s="0" t="s">
         <v>720</v>
       </c>
@@ -8357,7 +8387,7 @@
         <v>348</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="205">
       <c r="A205" s="0" t="s">
         <v>721</v>
       </c>
@@ -8365,7 +8395,7 @@
         <v>415</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="206">
       <c r="A206" s="0" t="s">
         <v>722</v>
       </c>
@@ -8373,7 +8403,7 @@
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="207">
       <c r="A207" s="0" t="s">
         <v>723</v>
       </c>
@@ -8381,7 +8411,7 @@
         <v>415</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="208">
       <c r="A208" s="0" t="s">
         <v>724</v>
       </c>
@@ -8389,7 +8419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="209">
       <c r="A209" s="0" t="s">
         <v>725</v>
       </c>
@@ -8397,7 +8427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="210">
       <c r="A210" s="0" t="s">
         <v>726</v>
       </c>
@@ -8405,7 +8435,7 @@
         <v>205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="211">
       <c r="A211" s="0" t="s">
         <v>727</v>
       </c>
@@ -8413,7 +8443,7 @@
         <v>205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="212">
       <c r="A212" s="0" t="s">
         <v>728</v>
       </c>
@@ -8421,7 +8451,7 @@
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="213">
       <c r="A213" s="0" t="s">
         <v>729</v>
       </c>
@@ -8452,10 +8482,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.6549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7882352941176"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.7490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -8576,17 +8606,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B32" activeCellId="0" pane="topLeft" sqref="B32"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A21" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B47" activeCellId="0" pane="topLeft" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.7647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.321568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8855,6 +8885,86 @@
       </c>
       <c r="B32" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="33">
+      <c r="A33" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+      <c r="A34" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="35">
+      <c r="A35" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+      <c r="A36" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+      <c r="A37" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="A38" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+      <c r="A39" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+      <c r="A40" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="41">
+      <c r="A41" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+      <c r="A42" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/categotry_mapping.xlsx
+++ b/categotry_mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="176" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="176" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Alexa" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="789">
   <si>
     <t>Top/Adult/</t>
   </si>
@@ -2210,6 +2210,18 @@
     <t>Types of Cars</t>
   </si>
   <si>
+    <t>Marriage</t>
+  </si>
+  <si>
+    <t>Toys</t>
+  </si>
+  <si>
+    <t>Personal Budgeting</t>
+  </si>
+  <si>
+    <t>Financial Aid</t>
+  </si>
+  <si>
     <t>arts_entertainment</t>
   </si>
   <si>
@@ -2355,6 +2367,24 @@
   </si>
   <si>
     <t>TV/Video Streams</t>
+  </si>
+  <si>
+    <t>Intimate Apparel/Swimsuit</t>
+  </si>
+  <si>
+    <t>Software Downloads</t>
+  </si>
+  <si>
+    <t>Personal Sites</t>
+  </si>
+  <si>
+    <t>Informational</t>
+  </si>
+  <si>
+    <t>Weapons</t>
+  </si>
+  <si>
+    <t>Gambling</t>
   </si>
 </sst>
 </file>
@@ -2463,11 +2493,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.2196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.8627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.2901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.2196078431373"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.6705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.2235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.643137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.4823529411765"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.8666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -6686,16 +6716,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A182" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A222" activeCellId="0" pane="topLeft" sqref="A222"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A196" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A217" activeCellId="0" pane="topLeft" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="31.321568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.1411764705882"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="31.6274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.8666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8457,6 +8487,38 @@
       </c>
       <c r="B213" s="0" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="214">
+      <c r="A214" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="215">
+      <c r="A215" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
+      <c r="A216" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
+      <c r="A217" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -8482,15 +8544,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7882352941176"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.8039215686275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0509803921569"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.8666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>14</v>
@@ -8498,7 +8560,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>17</v>
@@ -8506,7 +8568,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>86</v>
@@ -8517,7 +8579,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>75</v>
@@ -8525,7 +8587,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>29</v>
@@ -8533,7 +8595,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>73</v>
@@ -8541,7 +8603,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>415</v>
@@ -8549,7 +8611,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>29</v>
@@ -8560,7 +8622,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>75</v>
@@ -8568,7 +8630,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>348</v>
@@ -8576,7 +8638,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>205</v>
@@ -8584,7 +8646,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>47</v>
@@ -8606,22 +8668,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A21" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B47" activeCellId="0" pane="topLeft" sqref="B47"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A25" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G43" activeCellId="0" pane="topLeft" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7490196078431"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.3176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.756862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -8629,7 +8691,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -8637,7 +8699,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -8645,7 +8707,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>75</v>
@@ -8664,7 +8726,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
@@ -8672,7 +8734,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -8680,7 +8742,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>64</v>
@@ -8688,7 +8750,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>415</v>
@@ -8704,7 +8766,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -8712,7 +8774,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -8720,7 +8782,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>69</v>
@@ -8728,7 +8790,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>47</v>
@@ -8736,7 +8798,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>47</v>
@@ -8747,7 +8809,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>1</v>
@@ -8755,7 +8817,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>47</v>
@@ -8771,7 +8833,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>47</v>
@@ -8779,7 +8841,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>95</v>
@@ -8795,7 +8857,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -8803,7 +8865,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="0" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>75</v>
@@ -8811,7 +8873,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="0" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>205</v>
@@ -8825,7 +8887,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="0" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -8841,7 +8903,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="0" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -8849,7 +8911,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="0" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
@@ -8857,7 +8919,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
@@ -8865,7 +8927,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>96</v>
@@ -8873,7 +8935,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="0" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>415</v>
@@ -8881,90 +8943,138 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="32">
       <c r="A32" s="0" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="35">
       <c r="A35" s="0" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="0" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="B39" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="41">
       <c r="A41" s="0" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="0" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="43">
+      <c r="A43" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="44">
+      <c r="A44" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="45">
+      <c r="A45" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="46">
+      <c r="A46" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+      <c r="A47" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+      <c r="A48" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/categotry_mapping.xlsx
+++ b/categotry_mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="176" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="176" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Alexa" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="789">
   <si>
     <t>Top/Adult/</t>
   </si>
@@ -2489,15 +2489,15 @@
   <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A60" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C78" activeCellId="0" pane="topLeft" sqref="C78"/>
+      <selection activeCell="C78" activeCellId="0" pane="topLeft" sqref="A:C"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.6705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.2235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.643137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.4823529411765"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.8862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.4039215686275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.8235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.6156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.9294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -6718,14 +6718,14 @@
   </sheetPr>
   <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A196" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A217" activeCellId="0" pane="topLeft" sqref="A217"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A196" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A217" activeCellId="0" pane="topLeft" sqref="A:C"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="31.6274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4862745098039"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="31.7803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.9294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8505,7 +8505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="216">
       <c r="A216" s="0" t="s">
         <v>732</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="217">
       <c r="A217" s="0" t="s">
         <v>733</v>
       </c>
@@ -8540,14 +8540,14 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E11" activeCellId="0" pane="topLeft" sqref="E11"/>
+      <selection activeCell="E11" activeCellId="1" pane="topLeft" sqref="A:C E11"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.8039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0509803921569"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.0039215686275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1882352941176"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.9294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -8670,15 +8670,15 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A25" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G43" activeCellId="0" pane="topLeft" sqref="G43"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A:C"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.3176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.756862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.8666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8881,9 +8881,7 @@
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="D24" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="0" t="s">
@@ -9061,7 +9059,7 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="47">
       <c r="A47" s="0" t="s">
         <v>787</v>
       </c>
@@ -9069,7 +9067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="48">
       <c r="A48" s="0" t="s">
         <v>788</v>
       </c>
